--- a/준비물.xlsx
+++ b/준비물.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,15 +38,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">라즈베리파이3 기본 키트 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7인치 LCD모듈</t>
+    <t>출처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://smartstore.naver.com/icfactory/products/659835341?NaPm=ct%3Djep5n1ky%7Cci%3Dcheckout%7Ctr%3Dslsl_myc%7Ctrx%3D%7Chk%3Dbfdaee1576cb43a7a320d9de0e813df795080f23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루투스모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D프린팅 제작비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFC 모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://smartstore.naver.com/icfactory/products/659835341?NaPm=ct%3Djep5n1ky%7Cci%3Dcheckout%7Ctr%3Dslsl_myc%7Ctrx%3D%7Chk%3Dbfdaee1576cb43a7a320d9de0e813df795080f23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.artrobot.co.kr/product/tsc10438-손바닥-프린터thermal-printer/227/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSC10438</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.g9.co.kr/Display/VIP/Index/1124787080?jaehuid=200006432&amp;NaPm=ct%3Djeuoeiow%7Cci%3Dc7fd7224353c7ffa7837e95da27b54fae56b8d50%7Ctr%3Dslsl%7Csn%3D280455%7Chk%3D889bb400112b09d149d8b9d70d4c7d5ee7b42b5f</t>
+  </si>
+  <si>
+    <t>5인치 TFT LCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7인치 터치 LCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16x2 LCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://eduino.kr/product/detail.html?product_no=116&amp;cate_no=57&amp;display_group=1</t>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://smartstore.naver.com/icfactory/products/697419012?NaPm=ct%3Djeuosn6g%7Cci%3D0vzp002BpoLo2UU56uL-%7Ctr%3Dpla%7Chk%3D8123d8184e70ad493d06a492a7b35c692bc9914c</t>
+  </si>
+  <si>
+    <t>http://mechasolution.com/shop/goods/goods_view.php?goodsno=539500&amp;inflow=naver&amp;NaPm=ct%3Djeup9bhk%7Cci%3D94617ad4a1ef24c014b7efb0eb3bfbb749337205%7Ctr%3Dslsl%7Csn%3D188145%7Chk%3D82fb06546e35feb441ea6a5bc6a984d173d06690</t>
+  </si>
+  <si>
+    <t>3x 푸시택트버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://eduino.kr/product/detail.html?product_no=27&amp;cate_no=56&amp;display_group=1&amp;cafe_mkt=naver_ks&amp;mkt_in=Y&amp;ghost_mall_id=naver&amp;ref=naver_open&amp;n_media=11068&amp;n_query=%EB%B8%94%EB%A3%A8%ED%88%AC%EC%8A%A4%EB%AA%A8%EB%93%88&amp;n_rank=1&amp;n_ad_group=grp-a001-02-000000005976397&amp;n_ad=nad-a001-02-000000028165589&amp;n_campaign_type=2&amp;n_mall_pid=27&amp;NaPm=ct%3Djeupcdts%7Cci%3D0uLc0010qoLoZEc6RKI8%7Ctr%3Dpla%7Chk%3Deeb7524a34cdf14bfda955ce19b36b70ff5128de</t>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1330659/related/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://smartstore.naver.com/icfactory/products/697419012?NaPm=ct%3Djeuosn6g%7Cci%3D0vzp002BpoLo2UU56uL-%7Ctr%3Dpla%7Chk%3D8123d8184e70ad493d06a492a7b35c692bc9914c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브레드보드 170홀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -54,41 +141,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>출처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://smartstore.naver.com/icfactory/products/659835341?NaPm=ct%3Djep5n1ky%7Cci%3Dcheckout%7Ctr%3Dslsl_myc%7Ctrx%3D%7Chk%3Dbfdaee1576cb43a7a320d9de0e813df795080f23</t>
-  </si>
-  <si>
-    <t>http://smartstore.naver.com/icfactory/products/659835341?NaPm=ct%3Djep5n1ky%7Cci%3Dcheckout%7Ctr%3Dslsl_myc%7Ctrx%3D%7Chk%3Dbfdaee1576cb43a7a320d9de0e813df795080f23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>artrobot.co.kr/product/tsc10438-손바닥-프린터thermal-printer/227/</t>
-  </si>
-  <si>
-    <t>긴 LCD 판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼 3개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블루투스모듈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D프린팅 제작비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빵판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선</t>
+    <t>필요 금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,13 +174,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -156,6 +230,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -459,172 +557,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G14"/>
+  <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="3.046875" customWidth="1"/>
-    <col min="3" max="3" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.546875" customWidth="1"/>
+    <col min="3" max="3" width="10.546875" customWidth="1"/>
+    <col min="4" max="4" width="8.546875" customWidth="1"/>
+    <col min="5" max="5" width="5.546875" customWidth="1"/>
+    <col min="6" max="6" width="10.546875" customWidth="1"/>
+    <col min="7" max="7" width="8.546875" customWidth="1"/>
+    <col min="10" max="10" width="3.046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3">
         <v>75000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <f>$D3+$E3</f>
+      <c r="G3">
+        <f>$D3*$E3+$F3</f>
         <v>75000</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
+      <c r="D4" s="5">
+        <v>20000</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <f>$D4*$E4+$F4</f>
+        <v>20000</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5">
         <v>95700</v>
       </c>
-      <c r="E4">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F5" si="0">$D4+$E4</f>
+      <c r="G5">
+        <f>$D5*$E5+$F5</f>
         <v>95700</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>62700</v>
-      </c>
-      <c r="E5">
-        <v>3000</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>65700</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B6" s="1">
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D6">
+        <v>62700</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3000</v>
+      </c>
+      <c r="G6">
+        <f>$D6*$E6+$F6</f>
+        <v>65700</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7">
+        <v>54000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>$D7*$E7+$F7</f>
+        <v>54000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G8" s="5">
+        <f>$D8*$E8+$F8</f>
+        <v>4900</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B11" s="1">
+      <c r="D9" s="5">
+        <v>4300</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G9" s="5">
+        <f>$D9*$E9+$F9</f>
+        <v>6800</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5">
+        <v>4400</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <f>$D10*$E10+$F10</f>
+        <v>4400</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5">
+        <v>990</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="5">
+        <f>$D11*$E11+$F11</f>
+        <v>3990</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5">
+        <v>880</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5">
+        <f>$D12*$E12+$F12</f>
+        <v>1760</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="C13" s="1"/>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>$D13*$E13+$F13</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <f>SUM(F3:F12)</f>
-        <v>236400</v>
+      <c r="F14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="5">
+        <f>SUM(G3:G13)</f>
+        <v>372250</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="F15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="9">
+        <f>SUM(G3:G13)-(G4+SUM(G8:G12))</f>
+        <v>330400</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3"/>
+    <hyperlink ref="H4" r:id="rId4"/>
+    <hyperlink ref="H11" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
